--- a/Palmares.xlsx
+++ b/Palmares.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1108">
   <si>
     <t>Numero</t>
   </si>
@@ -1870,7 +1870,7 @@
     <t>AMRI</t>
   </si>
   <si>
-    <t>1 S A</t>
+    <t>1 SA</t>
   </si>
   <si>
     <t>0243</t>
@@ -2626,9 +2626,6 @@
     <t>BAMBARA</t>
   </si>
   <si>
-    <t>1 SA</t>
-  </si>
-  <si>
     <t>0353</t>
   </si>
   <si>
@@ -2909,6 +2906,438 @@
   </si>
   <si>
     <t>BWESO</t>
+  </si>
+  <si>
+    <t>0399</t>
+  </si>
+  <si>
+    <t>GAPIGIGI</t>
+  </si>
+  <si>
+    <t>0400</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>MALENGRET</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>MUREKAMBANZE</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>NJEJIMANA</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>NTATANGWA</t>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <t>NZABAMPEMA</t>
+  </si>
+  <si>
+    <t>0407</t>
+  </si>
+  <si>
+    <t>RUBUZUBURYO</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>BARANTANDIKIYE</t>
+  </si>
+  <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
+    <t>1SB</t>
+  </si>
+  <si>
+    <t>0409</t>
+  </si>
+  <si>
+    <t>FATEHALI LADHA</t>
+  </si>
+  <si>
+    <t>Khalil</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>GAHAMANYI</t>
+  </si>
+  <si>
+    <t>0411</t>
+  </si>
+  <si>
+    <t>LUMBALA</t>
+  </si>
+  <si>
+    <t>0412</t>
+  </si>
+  <si>
+    <t>MUHIRWA</t>
+  </si>
+  <si>
+    <t>0413</t>
+  </si>
+  <si>
+    <t>NGABONZIZA</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>0414</t>
+  </si>
+  <si>
+    <t>Jean-Prime</t>
+  </si>
+  <si>
+    <t>0415</t>
+  </si>
+  <si>
+    <t>NZEYIMANA</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>BIZUMUREMYI</t>
+  </si>
+  <si>
+    <t>1 Ec</t>
+  </si>
+  <si>
+    <t>0417</t>
+  </si>
+  <si>
+    <t>BUTURO</t>
+  </si>
+  <si>
+    <t>0418</t>
+  </si>
+  <si>
+    <t>KAZOBAGERAYO</t>
+  </si>
+  <si>
+    <t>0419</t>
+  </si>
+  <si>
+    <t>MUSAFIRI</t>
+  </si>
+  <si>
+    <t>0420</t>
+  </si>
+  <si>
+    <t>NIBURANA</t>
+  </si>
+  <si>
+    <t>0421</t>
+  </si>
+  <si>
+    <t>NTARABAKIGA</t>
+  </si>
+  <si>
+    <t>0422</t>
+  </si>
+  <si>
+    <t>RWABUDADARA</t>
+  </si>
+  <si>
+    <t>0423</t>
+  </si>
+  <si>
+    <t>BANZIZIKI</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>0424</t>
+  </si>
+  <si>
+    <t>BITANGUMUTWENZI</t>
+  </si>
+  <si>
+    <t>0425</t>
+  </si>
+  <si>
+    <t>BITARIHO</t>
+  </si>
+  <si>
+    <t>0426</t>
+  </si>
+  <si>
+    <t>BOEL</t>
+  </si>
+  <si>
+    <t>0427</t>
+  </si>
+  <si>
+    <t>Vulpien</t>
+  </si>
+  <si>
+    <t>0428</t>
+  </si>
+  <si>
+    <t>GATUNANGE</t>
+  </si>
+  <si>
+    <t>0429</t>
+  </si>
+  <si>
+    <t>GIRUKWIGOMBA</t>
+  </si>
+  <si>
+    <t>Astere</t>
+  </si>
+  <si>
+    <t>0430</t>
+  </si>
+  <si>
+    <t>HATUNGIMANA</t>
+  </si>
+  <si>
+    <t>Aderit</t>
+  </si>
+  <si>
+    <t>0431</t>
+  </si>
+  <si>
+    <t>KINUNDA</t>
+  </si>
+  <si>
+    <t>Emile</t>
+  </si>
+  <si>
+    <t>0432</t>
+  </si>
+  <si>
+    <t>NAMARUSHWA</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>0433</t>
+  </si>
+  <si>
+    <t>0434</t>
+  </si>
+  <si>
+    <t>0435</t>
+  </si>
+  <si>
+    <t>0436</t>
+  </si>
+  <si>
+    <t>Adonis</t>
+  </si>
+  <si>
+    <t>0437</t>
+  </si>
+  <si>
+    <t>0438</t>
+  </si>
+  <si>
+    <t>RUHOTORA</t>
+  </si>
+  <si>
+    <t>Papien</t>
+  </si>
+  <si>
+    <t>0439</t>
+  </si>
+  <si>
+    <t>0440</t>
+  </si>
+  <si>
+    <t>BARADOGOMBA</t>
+  </si>
+  <si>
+    <t>0441</t>
+  </si>
+  <si>
+    <t>BARICAKO</t>
+  </si>
+  <si>
+    <t>0442</t>
+  </si>
+  <si>
+    <t>BAZIRA</t>
+  </si>
+  <si>
+    <t>Leodegal</t>
+  </si>
+  <si>
+    <t>0443</t>
+  </si>
+  <si>
+    <t>BIZONGWAKO</t>
+  </si>
+  <si>
+    <t>0444</t>
+  </si>
+  <si>
+    <t>0445</t>
+  </si>
+  <si>
+    <t>KUBWIMANA</t>
+  </si>
+  <si>
+    <t>0446</t>
+  </si>
+  <si>
+    <t>MINANI</t>
+  </si>
+  <si>
+    <t>Aloys-Emery</t>
+  </si>
+  <si>
+    <t>0447</t>
+  </si>
+  <si>
+    <t>0448</t>
+  </si>
+  <si>
+    <t>0449</t>
+  </si>
+  <si>
+    <t>NIRAGIRA</t>
+  </si>
+  <si>
+    <t>Bernardin</t>
+  </si>
+  <si>
+    <t>0450</t>
+  </si>
+  <si>
+    <t>NIYIMPAGARITSE</t>
+  </si>
+  <si>
+    <t>0451</t>
+  </si>
+  <si>
+    <t>0452</t>
+  </si>
+  <si>
+    <t>NTAMASHIMIKIRO</t>
+  </si>
+  <si>
+    <t>0453</t>
+  </si>
+  <si>
+    <t>NTANUNGU</t>
+  </si>
+  <si>
+    <t>0454</t>
+  </si>
+  <si>
+    <t>0455</t>
+  </si>
+  <si>
+    <t>RISHIRUMUHIRWA</t>
+  </si>
+  <si>
+    <t>0456</t>
+  </si>
+  <si>
+    <t>RUKORIKIBI</t>
+  </si>
+  <si>
+    <t>Jerome-Albert</t>
+  </si>
+  <si>
+    <t>0457</t>
+  </si>
+  <si>
+    <t>0458</t>
+  </si>
+  <si>
+    <t>SEMUJANGARI</t>
+  </si>
+  <si>
+    <t>0459</t>
+  </si>
+  <si>
+    <t>SIBONDAGARA</t>
+  </si>
+  <si>
+    <t>0460</t>
+  </si>
+  <si>
+    <t>0461</t>
+  </si>
+  <si>
+    <t>GRAMMELIS</t>
+  </si>
+  <si>
+    <t>0462</t>
+  </si>
+  <si>
+    <t>0463</t>
+  </si>
+  <si>
+    <t>Gabin</t>
+  </si>
+  <si>
+    <t>0464</t>
+  </si>
+  <si>
+    <t>KARERWA</t>
+  </si>
+  <si>
+    <t>0465</t>
+  </si>
+  <si>
+    <t>KINIGI</t>
+  </si>
+  <si>
+    <t>0466</t>
+  </si>
+  <si>
+    <t>NDEREYIMANA</t>
+  </si>
+  <si>
+    <t>0467</t>
+  </si>
+  <si>
+    <t>NGENDAHAYO</t>
+  </si>
+  <si>
+    <t>0468</t>
+  </si>
+  <si>
+    <t>NIKOBIHOZE</t>
+  </si>
+  <si>
+    <t>Rogatien</t>
+  </si>
+  <si>
+    <t>0469</t>
+  </si>
+  <si>
+    <t>0470</t>
+  </si>
+  <si>
+    <t>TRUSSART</t>
   </si>
 </sst>
 </file>
@@ -2916,11 +3345,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2936,6 +3365,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2955,14 +3391,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2976,14 +3421,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2991,9 +3429,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3014,19 +3452,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3046,14 +3484,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -3062,13 +3492,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3092,13 +3521,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3116,73 +3611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3200,19 +3629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3230,19 +3659,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3260,19 +3689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,26 +3730,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3349,6 +3780,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3360,26 +3806,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3388,7 +3817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3406,130 +3835,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3868,10 +4297,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E399"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="E471" sqref="E471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -9880,12 +10309,12 @@
         <v>24654</v>
       </c>
       <c r="E353" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B354" t="s">
         <v>753</v>
@@ -9897,32 +10326,32 @@
         <v>24654</v>
       </c>
       <c r="E354" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B355" t="s">
         <v>872</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>873</v>
-      </c>
-      <c r="C355" t="s">
-        <v>874</v>
       </c>
       <c r="D355" s="1">
         <v>24654</v>
       </c>
       <c r="E355" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B356" t="s">
         <v>875</v>
-      </c>
-      <c r="B356" t="s">
-        <v>876</v>
       </c>
       <c r="C356" t="s">
         <v>346</v>
@@ -9931,15 +10360,15 @@
         <v>24654</v>
       </c>
       <c r="E356" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="B357" t="s">
         <v>877</v>
-      </c>
-      <c r="B357" t="s">
-        <v>878</v>
       </c>
       <c r="C357" t="s">
         <v>259</v>
@@ -9948,15 +10377,15 @@
         <v>24654</v>
       </c>
       <c r="E357" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="B358" t="s">
         <v>879</v>
-      </c>
-      <c r="B358" t="s">
-        <v>880</v>
       </c>
       <c r="C358" t="s">
         <v>298</v>
@@ -9965,12 +10394,12 @@
         <v>24654</v>
       </c>
       <c r="E358" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B359" t="s">
         <v>436</v>
@@ -9982,15 +10411,15 @@
         <v>24654</v>
       </c>
       <c r="E359" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B360" t="s">
         <v>882</v>
-      </c>
-      <c r="B360" t="s">
-        <v>883</v>
       </c>
       <c r="C360" t="s">
         <v>32</v>
@@ -9999,32 +10428,32 @@
         <v>24654</v>
       </c>
       <c r="E360" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B361" t="s">
         <v>884</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>885</v>
-      </c>
-      <c r="C361" t="s">
-        <v>886</v>
       </c>
       <c r="D361" s="1">
         <v>24654</v>
       </c>
       <c r="E361" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="B362" t="s">
         <v>887</v>
-      </c>
-      <c r="B362" t="s">
-        <v>888</v>
       </c>
       <c r="C362" t="s">
         <v>492</v>
@@ -10033,29 +10462,29 @@
         <v>24654</v>
       </c>
       <c r="E362" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="B363" t="s">
         <v>889</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>890</v>
-      </c>
-      <c r="C363" t="s">
-        <v>891</v>
       </c>
       <c r="D363" s="1">
         <v>24654</v>
       </c>
       <c r="E363" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B364" t="s">
         <v>680</v>
@@ -10067,18 +10496,18 @@
         <v>24654</v>
       </c>
       <c r="E364" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B365" t="s">
         <v>187</v>
       </c>
       <c r="C365" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D365" s="1">
         <v>25020</v>
@@ -10089,7 +10518,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B366" t="s">
         <v>187</v>
@@ -10106,13 +10535,13 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="B367" t="s">
         <v>896</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>897</v>
-      </c>
-      <c r="C367" t="s">
-        <v>898</v>
       </c>
       <c r="D367" s="1">
         <v>25020</v>
@@ -10123,10 +10552,10 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B368" t="s">
         <v>899</v>
-      </c>
-      <c r="B368" t="s">
-        <v>900</v>
       </c>
       <c r="C368" t="s">
         <v>535</v>
@@ -10140,13 +10569,13 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="B369" t="s">
         <v>901</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>902</v>
-      </c>
-      <c r="C369" t="s">
-        <v>903</v>
       </c>
       <c r="D369" s="1">
         <v>25020</v>
@@ -10157,7 +10586,7 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B370" t="s">
         <v>469</v>
@@ -10174,10 +10603,10 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="B371" t="s">
         <v>905</v>
-      </c>
-      <c r="B371" t="s">
-        <v>906</v>
       </c>
       <c r="C371" t="s">
         <v>17</v>
@@ -10191,13 +10620,13 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B372" t="s">
         <v>333</v>
       </c>
       <c r="C372" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D372" s="1">
         <v>25020</v>
@@ -10208,10 +10637,10 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="B373" t="s">
         <v>909</v>
-      </c>
-      <c r="B373" t="s">
-        <v>910</v>
       </c>
       <c r="C373" t="s">
         <v>139</v>
@@ -10225,10 +10654,10 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B374" t="s">
         <v>911</v>
-      </c>
-      <c r="B374" t="s">
-        <v>912</v>
       </c>
       <c r="C374" t="s">
         <v>123</v>
@@ -10242,10 +10671,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B375" t="s">
         <v>913</v>
-      </c>
-      <c r="B375" t="s">
-        <v>914</v>
       </c>
       <c r="C375" t="s">
         <v>226</v>
@@ -10259,10 +10688,10 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="B376" t="s">
         <v>915</v>
-      </c>
-      <c r="B376" t="s">
-        <v>916</v>
       </c>
       <c r="C376" t="s">
         <v>70</v>
@@ -10276,13 +10705,13 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B377" t="s">
         <v>526</v>
       </c>
       <c r="C377" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D377" s="1">
         <v>25020</v>
@@ -10293,13 +10722,13 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B378" t="s">
         <v>919</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>920</v>
-      </c>
-      <c r="C378" t="s">
-        <v>921</v>
       </c>
       <c r="D378" s="1">
         <v>25020</v>
@@ -10310,10 +10739,10 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="B379" t="s">
         <v>922</v>
-      </c>
-      <c r="B379" t="s">
-        <v>923</v>
       </c>
       <c r="C379" t="s">
         <v>751</v>
@@ -10327,13 +10756,13 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="B380" t="s">
         <v>924</v>
       </c>
-      <c r="B380" t="s">
-        <v>925</v>
-      </c>
       <c r="C380" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D380" s="1">
         <v>25020</v>
@@ -10344,10 +10773,10 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B381" t="s">
         <v>926</v>
-      </c>
-      <c r="B381" t="s">
-        <v>927</v>
       </c>
       <c r="C381" t="s">
         <v>85</v>
@@ -10361,10 +10790,10 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B382" t="s">
         <v>928</v>
-      </c>
-      <c r="B382" t="s">
-        <v>929</v>
       </c>
       <c r="C382" t="s">
         <v>70</v>
@@ -10378,10 +10807,10 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B383" t="s">
         <v>930</v>
-      </c>
-      <c r="B383" t="s">
-        <v>931</v>
       </c>
       <c r="C383" t="s">
         <v>535</v>
@@ -10395,10 +10824,10 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B384" t="s">
         <v>932</v>
-      </c>
-      <c r="B384" t="s">
-        <v>933</v>
       </c>
       <c r="C384" t="s">
         <v>615</v>
@@ -10412,13 +10841,13 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B385" t="s">
         <v>934</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>935</v>
-      </c>
-      <c r="C385" t="s">
-        <v>936</v>
       </c>
       <c r="D385" s="1">
         <v>25020</v>
@@ -10429,10 +10858,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B386" t="s">
         <v>937</v>
-      </c>
-      <c r="B386" t="s">
-        <v>938</v>
       </c>
       <c r="C386" t="s">
         <v>7</v>
@@ -10446,10 +10875,10 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B387" t="s">
         <v>939</v>
-      </c>
-      <c r="B387" t="s">
-        <v>940</v>
       </c>
       <c r="C387" t="s">
         <v>393</v>
@@ -10463,10 +10892,10 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B388" t="s">
         <v>941</v>
-      </c>
-      <c r="B388" t="s">
-        <v>942</v>
       </c>
       <c r="C388" t="s">
         <v>85</v>
@@ -10480,10 +10909,10 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B389" t="s">
         <v>943</v>
-      </c>
-      <c r="B389" t="s">
-        <v>944</v>
       </c>
       <c r="C389" t="s">
         <v>123</v>
@@ -10497,10 +10926,10 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B390" t="s">
         <v>945</v>
-      </c>
-      <c r="B390" t="s">
-        <v>946</v>
       </c>
       <c r="C390" t="s">
         <v>23</v>
@@ -10514,10 +10943,10 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B391" t="s">
         <v>947</v>
-      </c>
-      <c r="B391" t="s">
-        <v>948</v>
       </c>
       <c r="C391" t="s">
         <v>591</v>
@@ -10531,13 +10960,13 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B392" t="s">
         <v>949</v>
       </c>
-      <c r="B392" t="s">
-        <v>950</v>
-      </c>
       <c r="C392" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D392" s="1">
         <v>25020</v>
@@ -10548,10 +10977,10 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B393" t="s">
         <v>951</v>
-      </c>
-      <c r="B393" t="s">
-        <v>952</v>
       </c>
       <c r="C393" t="s">
         <v>535</v>
@@ -10565,10 +10994,10 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B394" t="s">
         <v>953</v>
-      </c>
-      <c r="B394" t="s">
-        <v>954</v>
       </c>
       <c r="C394" t="s">
         <v>199</v>
@@ -10582,10 +11011,10 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B395" t="s">
         <v>955</v>
-      </c>
-      <c r="B395" t="s">
-        <v>956</v>
       </c>
       <c r="C395" t="s">
         <v>274</v>
@@ -10599,10 +11028,10 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B396" t="s">
         <v>957</v>
-      </c>
-      <c r="B396" t="s">
-        <v>958</v>
       </c>
       <c r="C396" t="s">
         <v>337</v>
@@ -10616,10 +11045,10 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B397" t="s">
         <v>959</v>
-      </c>
-      <c r="B397" t="s">
-        <v>960</v>
       </c>
       <c r="C397" t="s">
         <v>64</v>
@@ -10628,15 +11057,15 @@
         <v>25020</v>
       </c>
       <c r="E397" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B398" t="s">
         <v>961</v>
-      </c>
-      <c r="B398" t="s">
-        <v>962</v>
       </c>
       <c r="C398" t="s">
         <v>142</v>
@@ -10645,15 +11074,15 @@
         <v>25020</v>
       </c>
       <c r="E398" t="s">
-        <v>870</v>
+        <v>618</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B399" t="s">
         <v>963</v>
-      </c>
-      <c r="B399" t="s">
-        <v>964</v>
       </c>
       <c r="C399" t="s">
         <v>85</v>
@@ -10662,7 +11091,1231 @@
         <v>25020</v>
       </c>
       <c r="E399" t="s">
-        <v>870</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B400" t="s">
+        <v>965</v>
+      </c>
+      <c r="C400" t="s">
+        <v>96</v>
+      </c>
+      <c r="D400" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E400" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B401" t="s">
+        <v>504</v>
+      </c>
+      <c r="C401" t="s">
+        <v>70</v>
+      </c>
+      <c r="D401" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E401" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B402" t="s">
+        <v>968</v>
+      </c>
+      <c r="C402" t="s">
+        <v>35</v>
+      </c>
+      <c r="D402" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E402" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B403" t="s">
+        <v>970</v>
+      </c>
+      <c r="C403" t="s">
+        <v>822</v>
+      </c>
+      <c r="D403" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E403" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B404" t="s">
+        <v>801</v>
+      </c>
+      <c r="C404" t="s">
+        <v>403</v>
+      </c>
+      <c r="D404" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E404" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B405" t="s">
+        <v>973</v>
+      </c>
+      <c r="C405" t="s">
+        <v>46</v>
+      </c>
+      <c r="D405" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E405" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B406" t="s">
+        <v>975</v>
+      </c>
+      <c r="C406" t="s">
+        <v>85</v>
+      </c>
+      <c r="D406" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E406" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B407" t="s">
+        <v>977</v>
+      </c>
+      <c r="C407" t="s">
+        <v>142</v>
+      </c>
+      <c r="D407" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E407" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="B408" t="s">
+        <v>979</v>
+      </c>
+      <c r="C408" t="s">
+        <v>897</v>
+      </c>
+      <c r="D408" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E408" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="B409" t="s">
+        <v>981</v>
+      </c>
+      <c r="C409" t="s">
+        <v>982</v>
+      </c>
+      <c r="D409" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E409" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B410" t="s">
+        <v>985</v>
+      </c>
+      <c r="C410" t="s">
+        <v>986</v>
+      </c>
+      <c r="D410" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E410" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="B411" t="s">
+        <v>988</v>
+      </c>
+      <c r="C411" t="s">
+        <v>579</v>
+      </c>
+      <c r="D411" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E411" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B412" t="s">
+        <v>990</v>
+      </c>
+      <c r="C412" t="s">
+        <v>484</v>
+      </c>
+      <c r="D412" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E412" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B413" t="s">
+        <v>992</v>
+      </c>
+      <c r="C413" t="s">
+        <v>208</v>
+      </c>
+      <c r="D413" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E413" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B414" t="s">
+        <v>994</v>
+      </c>
+      <c r="C414" t="s">
+        <v>995</v>
+      </c>
+      <c r="D414" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E414" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B415" t="s">
+        <v>555</v>
+      </c>
+      <c r="C415" t="s">
+        <v>997</v>
+      </c>
+      <c r="D415" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E415" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B416" t="s">
+        <v>999</v>
+      </c>
+      <c r="C416" t="s">
+        <v>173</v>
+      </c>
+      <c r="D416" s="1">
+        <v>25020</v>
+      </c>
+      <c r="E416" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C417" t="s">
+        <v>251</v>
+      </c>
+      <c r="D417" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E417" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C418" t="s">
+        <v>751</v>
+      </c>
+      <c r="D418" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E418" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C419" t="s">
+        <v>492</v>
+      </c>
+      <c r="D419" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E419" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C420" t="s">
+        <v>85</v>
+      </c>
+      <c r="D420" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E420" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C421" t="s">
+        <v>696</v>
+      </c>
+      <c r="D421" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C422" t="s">
+        <v>591</v>
+      </c>
+      <c r="D422" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C423" t="s">
+        <v>591</v>
+      </c>
+      <c r="D423" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D424" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E424" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C425" t="s">
+        <v>495</v>
+      </c>
+      <c r="D425" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C426" t="s">
+        <v>226</v>
+      </c>
+      <c r="D426" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C427" t="s">
+        <v>995</v>
+      </c>
+      <c r="D427" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B428" t="s">
+        <v>187</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D428" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C429" t="s">
+        <v>111</v>
+      </c>
+      <c r="D429" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D430" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E430" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C431" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D431" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C432" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D432" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C433" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D433" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B434" t="s">
+        <v>371</v>
+      </c>
+      <c r="C434" t="s">
+        <v>298</v>
+      </c>
+      <c r="D434" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B435" t="s">
+        <v>790</v>
+      </c>
+      <c r="C435" t="s">
+        <v>231</v>
+      </c>
+      <c r="D435" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B436" t="s">
+        <v>583</v>
+      </c>
+      <c r="C436" t="s">
+        <v>88</v>
+      </c>
+      <c r="D436" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B437" t="s">
+        <v>544</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D437" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B438" t="s">
+        <v>999</v>
+      </c>
+      <c r="C438" t="s">
+        <v>41</v>
+      </c>
+      <c r="D438" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D439" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B440" t="s">
+        <v>324</v>
+      </c>
+      <c r="C440" t="s">
+        <v>601</v>
+      </c>
+      <c r="D440" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C441" t="s">
+        <v>393</v>
+      </c>
+      <c r="D441" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E441" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C442" t="s">
+        <v>111</v>
+      </c>
+      <c r="D442" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E442" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C443" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D443" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E443" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C444" t="s">
+        <v>897</v>
+      </c>
+      <c r="D444" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E444" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B445" t="s">
+        <v>261</v>
+      </c>
+      <c r="C445" t="s">
+        <v>102</v>
+      </c>
+      <c r="D445" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E445" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C446" t="s">
+        <v>885</v>
+      </c>
+      <c r="D446" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E446" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C447" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D447" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E447" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B448" t="s">
+        <v>788</v>
+      </c>
+      <c r="C448" t="s">
+        <v>751</v>
+      </c>
+      <c r="D448" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E448" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B449" t="s">
+        <v>544</v>
+      </c>
+      <c r="C449" t="s">
+        <v>226</v>
+      </c>
+      <c r="D449" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E449" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C450" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D450" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E450" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C451" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E451" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B452" t="s">
+        <v>552</v>
+      </c>
+      <c r="C452" t="s">
+        <v>234</v>
+      </c>
+      <c r="D452" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E452" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C453" t="s">
+        <v>139</v>
+      </c>
+      <c r="D453" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E453" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D454" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E454" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B455" t="s">
+        <v>999</v>
+      </c>
+      <c r="C455" t="s">
+        <v>96</v>
+      </c>
+      <c r="D455" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E455" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C456" t="s">
+        <v>268</v>
+      </c>
+      <c r="D456" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E456" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C457" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D457" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E457" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B458" t="s">
+        <v>945</v>
+      </c>
+      <c r="C458" t="s">
+        <v>248</v>
+      </c>
+      <c r="D458" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E458" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C459" t="s">
+        <v>32</v>
+      </c>
+      <c r="D459" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E459" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C460" t="s">
+        <v>935</v>
+      </c>
+      <c r="D460" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E460" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B461" t="s">
+        <v>508</v>
+      </c>
+      <c r="C461" t="s">
+        <v>88</v>
+      </c>
+      <c r="D461" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E461" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C462" t="s">
+        <v>208</v>
+      </c>
+      <c r="D462" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E462" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B463" t="s">
+        <v>843</v>
+      </c>
+      <c r="C463" t="s">
+        <v>465</v>
+      </c>
+      <c r="D463" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E463" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B464" t="s">
+        <v>500</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D464" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E464" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C465" t="s">
+        <v>920</v>
+      </c>
+      <c r="D465" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E465" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C466" t="s">
+        <v>629</v>
+      </c>
+      <c r="D466" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E466" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C467" t="s">
+        <v>535</v>
+      </c>
+      <c r="D467" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E467" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C468" t="s">
+        <v>920</v>
+      </c>
+      <c r="D468" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E468" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C469" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D469" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E469" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C470" t="s">
+        <v>465</v>
+      </c>
+      <c r="D470" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E470" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C471" t="s">
+        <v>535</v>
+      </c>
+      <c r="D471" s="1">
+        <v>25385</v>
+      </c>
+      <c r="E471" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/Palmares.xlsx
+++ b/Palmares.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="11520" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="1443">
   <si>
     <t>Numero</t>
   </si>
@@ -3338,6 +3338,1011 @@
   </si>
   <si>
     <t>TRUSSART</t>
+  </si>
+  <si>
+    <t>0471</t>
+  </si>
+  <si>
+    <t>BITABUZI</t>
+  </si>
+  <si>
+    <t>0472</t>
+  </si>
+  <si>
+    <t>BUHAGA</t>
+  </si>
+  <si>
+    <t>Pierre-Claver</t>
+  </si>
+  <si>
+    <t>0473</t>
+  </si>
+  <si>
+    <t>HUYS</t>
+  </si>
+  <si>
+    <t>0474</t>
+  </si>
+  <si>
+    <t>KIGOMA</t>
+  </si>
+  <si>
+    <t>0475</t>
+  </si>
+  <si>
+    <t>MIDUREKO</t>
+  </si>
+  <si>
+    <t>0476</t>
+  </si>
+  <si>
+    <t>0477</t>
+  </si>
+  <si>
+    <t>SIGEJEJE</t>
+  </si>
+  <si>
+    <t>Cyrille</t>
+  </si>
+  <si>
+    <t>0478</t>
+  </si>
+  <si>
+    <t>BASEKANA</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>0479</t>
+  </si>
+  <si>
+    <t>Jean Petit</t>
+  </si>
+  <si>
+    <t>0480</t>
+  </si>
+  <si>
+    <t>MATEREZA</t>
+  </si>
+  <si>
+    <t>0481</t>
+  </si>
+  <si>
+    <t>NDIHO</t>
+  </si>
+  <si>
+    <t>0482</t>
+  </si>
+  <si>
+    <t>NDIRAKOBUCA</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>0483</t>
+  </si>
+  <si>
+    <t>NSENGIYUMVA</t>
+  </si>
+  <si>
+    <t>0484</t>
+  </si>
+  <si>
+    <t>NTAHE</t>
+  </si>
+  <si>
+    <t>0485</t>
+  </si>
+  <si>
+    <t>NTAHIMPERA</t>
+  </si>
+  <si>
+    <t>0486</t>
+  </si>
+  <si>
+    <t>NTAKIYICA</t>
+  </si>
+  <si>
+    <t>0487</t>
+  </si>
+  <si>
+    <t>NZIHABANDI</t>
+  </si>
+  <si>
+    <t>0488</t>
+  </si>
+  <si>
+    <t>RUBUKA</t>
+  </si>
+  <si>
+    <t>0489</t>
+  </si>
+  <si>
+    <t>RUKINGAMUBIRI</t>
+  </si>
+  <si>
+    <t>0490</t>
+  </si>
+  <si>
+    <t>SARUGONDE</t>
+  </si>
+  <si>
+    <t>0491</t>
+  </si>
+  <si>
+    <t>TAFAUTI</t>
+  </si>
+  <si>
+    <t>0492</t>
+  </si>
+  <si>
+    <t>BENDANTUNGUKA</t>
+  </si>
+  <si>
+    <t>0493</t>
+  </si>
+  <si>
+    <t>BIRIHANYUMA</t>
+  </si>
+  <si>
+    <t>0494</t>
+  </si>
+  <si>
+    <t>0495</t>
+  </si>
+  <si>
+    <t>GAHIZI</t>
+  </si>
+  <si>
+    <t>0496</t>
+  </si>
+  <si>
+    <t>0497</t>
+  </si>
+  <si>
+    <t>KUNDERE</t>
+  </si>
+  <si>
+    <t>0498</t>
+  </si>
+  <si>
+    <t>0499</t>
+  </si>
+  <si>
+    <t>MPOGO-BOKANGA</t>
+  </si>
+  <si>
+    <t>0500</t>
+  </si>
+  <si>
+    <t>MUZINGA</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>NAHIGOMBEYE</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>NDAYONGEJE</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>NIMUBONA</t>
+  </si>
+  <si>
+    <t>Salvator</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>NZISABIRA</t>
+  </si>
+  <si>
+    <t>0507</t>
+  </si>
+  <si>
+    <t>NZOBANDORA</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>SAKUBU</t>
+  </si>
+  <si>
+    <t>0509</t>
+  </si>
+  <si>
+    <t>SAYINGUVU</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>SINZINKAYO</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>TANGISHAKA</t>
+  </si>
+  <si>
+    <t>Diomede</t>
+  </si>
+  <si>
+    <t>0512</t>
+  </si>
+  <si>
+    <t>JONKHEERE</t>
+  </si>
+  <si>
+    <t>0513</t>
+  </si>
+  <si>
+    <t>KIMBIRA</t>
+  </si>
+  <si>
+    <t>0514</t>
+  </si>
+  <si>
+    <t>MUHITIRA</t>
+  </si>
+  <si>
+    <t>0515</t>
+  </si>
+  <si>
+    <t>NDAYISENGA</t>
+  </si>
+  <si>
+    <t>0516</t>
+  </si>
+  <si>
+    <t>NDORERE</t>
+  </si>
+  <si>
+    <t>0517</t>
+  </si>
+  <si>
+    <t>NIYONSABA</t>
+  </si>
+  <si>
+    <t>0518</t>
+  </si>
+  <si>
+    <t>VAN DER VORST</t>
+  </si>
+  <si>
+    <t>0519</t>
+  </si>
+  <si>
+    <t>BAMPORUBUSA</t>
+  </si>
+  <si>
+    <t>0520</t>
+  </si>
+  <si>
+    <t>GIHANA</t>
+  </si>
+  <si>
+    <t>0521</t>
+  </si>
+  <si>
+    <t>HAMISSI</t>
+  </si>
+  <si>
+    <t>Shabani</t>
+  </si>
+  <si>
+    <t>0522</t>
+  </si>
+  <si>
+    <t>KAKANA</t>
+  </si>
+  <si>
+    <t>0523</t>
+  </si>
+  <si>
+    <t>MUSONI</t>
+  </si>
+  <si>
+    <t>Shadrac</t>
+  </si>
+  <si>
+    <t>0524</t>
+  </si>
+  <si>
+    <t>NDAKOZE</t>
+  </si>
+  <si>
+    <t>Pamphyle</t>
+  </si>
+  <si>
+    <t>0525</t>
+  </si>
+  <si>
+    <t>NDAYITWAYEKO</t>
+  </si>
+  <si>
+    <t>0526</t>
+  </si>
+  <si>
+    <t>NIYIMBONA</t>
+  </si>
+  <si>
+    <t>Pancrace</t>
+  </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>RUSHENGUZIMINEGA</t>
+  </si>
+  <si>
+    <t>J-Francois-Regis</t>
+  </si>
+  <si>
+    <t>0528</t>
+  </si>
+  <si>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>Joseph-Jacques</t>
+  </si>
+  <si>
+    <t>0529</t>
+  </si>
+  <si>
+    <t>0530</t>
+  </si>
+  <si>
+    <t>BIRABUZA</t>
+  </si>
+  <si>
+    <t>0531</t>
+  </si>
+  <si>
+    <t>BURUNDI</t>
+  </si>
+  <si>
+    <t>0532</t>
+  </si>
+  <si>
+    <t>BUSAHARA</t>
+  </si>
+  <si>
+    <t>0533</t>
+  </si>
+  <si>
+    <t>KAPASA</t>
+  </si>
+  <si>
+    <t>0534</t>
+  </si>
+  <si>
+    <t>MIBARURWA</t>
+  </si>
+  <si>
+    <t>0535</t>
+  </si>
+  <si>
+    <t>MPENDUBURUNDI</t>
+  </si>
+  <si>
+    <t>0536</t>
+  </si>
+  <si>
+    <t>NDAHIBESHE</t>
+  </si>
+  <si>
+    <t>0537</t>
+  </si>
+  <si>
+    <t>NDARUGIRIRE</t>
+  </si>
+  <si>
+    <t>0538</t>
+  </si>
+  <si>
+    <t>NKUNZIMANA</t>
+  </si>
+  <si>
+    <t>0539</t>
+  </si>
+  <si>
+    <t>NTARYOBASHIGAJIJE</t>
+  </si>
+  <si>
+    <t>0540</t>
+  </si>
+  <si>
+    <t>NTIRUHUNGWA</t>
+  </si>
+  <si>
+    <t>0541</t>
+  </si>
+  <si>
+    <t>Salomon</t>
+  </si>
+  <si>
+    <t>0542</t>
+  </si>
+  <si>
+    <t>NZOSABA</t>
+  </si>
+  <si>
+    <t>0543</t>
+  </si>
+  <si>
+    <t>BURAMATARE</t>
+  </si>
+  <si>
+    <t>1 LC</t>
+  </si>
+  <si>
+    <t>0544</t>
+  </si>
+  <si>
+    <t>MAFOKOZI</t>
+  </si>
+  <si>
+    <t>0545</t>
+  </si>
+  <si>
+    <t>MANIRAMPA</t>
+  </si>
+  <si>
+    <t>0546</t>
+  </si>
+  <si>
+    <t>0547</t>
+  </si>
+  <si>
+    <t>NTAHUGA</t>
+  </si>
+  <si>
+    <t>0548</t>
+  </si>
+  <si>
+    <t>BITOMAGIRA</t>
+  </si>
+  <si>
+    <t>1 LM</t>
+  </si>
+  <si>
+    <t>0549</t>
+  </si>
+  <si>
+    <t>MENDE</t>
+  </si>
+  <si>
+    <t>0550</t>
+  </si>
+  <si>
+    <t>NAHAYO</t>
+  </si>
+  <si>
+    <t>0551</t>
+  </si>
+  <si>
+    <t>NDAYIHEREJE</t>
+  </si>
+  <si>
+    <t>0552</t>
+  </si>
+  <si>
+    <t>Theophile</t>
+  </si>
+  <si>
+    <t>0553</t>
+  </si>
+  <si>
+    <t>NIMBESHA</t>
+  </si>
+  <si>
+    <t>0554</t>
+  </si>
+  <si>
+    <t>RUKOHOZA</t>
+  </si>
+  <si>
+    <t>0555</t>
+  </si>
+  <si>
+    <t>RYONI</t>
+  </si>
+  <si>
+    <t>0556</t>
+  </si>
+  <si>
+    <t>SIMBARE</t>
+  </si>
+  <si>
+    <t>Adelin</t>
+  </si>
+  <si>
+    <t>0557</t>
+  </si>
+  <si>
+    <t>Melas</t>
+  </si>
+  <si>
+    <t>0558</t>
+  </si>
+  <si>
+    <t>Romain</t>
+  </si>
+  <si>
+    <t>0559</t>
+  </si>
+  <si>
+    <t>BUSABUSA</t>
+  </si>
+  <si>
+    <t>Sebastien</t>
+  </si>
+  <si>
+    <t>0560</t>
+  </si>
+  <si>
+    <t>0561</t>
+  </si>
+  <si>
+    <t>IBRAHIM</t>
+  </si>
+  <si>
+    <t>Jumaine</t>
+  </si>
+  <si>
+    <t>0562</t>
+  </si>
+  <si>
+    <t>KARIMUNDA</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>0563</t>
+  </si>
+  <si>
+    <t>KAVABUHA</t>
+  </si>
+  <si>
+    <t>0564</t>
+  </si>
+  <si>
+    <t>MPAWENAYO</t>
+  </si>
+  <si>
+    <t>0565</t>
+  </si>
+  <si>
+    <t>NIBIGIRA</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>0566</t>
+  </si>
+  <si>
+    <t>0567</t>
+  </si>
+  <si>
+    <t>NTAWURUSIGA</t>
+  </si>
+  <si>
+    <t>0568</t>
+  </si>
+  <si>
+    <t>NYARUSHATSI</t>
+  </si>
+  <si>
+    <t>0569</t>
+  </si>
+  <si>
+    <t>NZORONKA</t>
+  </si>
+  <si>
+    <t>0570</t>
+  </si>
+  <si>
+    <t>RUZINA</t>
+  </si>
+  <si>
+    <t>0571</t>
+  </si>
+  <si>
+    <t>0572</t>
+  </si>
+  <si>
+    <t>BAREDETSE</t>
+  </si>
+  <si>
+    <t>1 SB</t>
+  </si>
+  <si>
+    <t>0573</t>
+  </si>
+  <si>
+    <t>CISHAHAYO</t>
+  </si>
+  <si>
+    <t>0574</t>
+  </si>
+  <si>
+    <t>NAHIMPEREYE</t>
+  </si>
+  <si>
+    <t>0575</t>
+  </si>
+  <si>
+    <t>0576</t>
+  </si>
+  <si>
+    <t>NDIKUMAKO</t>
+  </si>
+  <si>
+    <t>0577</t>
+  </si>
+  <si>
+    <t>0578</t>
+  </si>
+  <si>
+    <t>0579</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>0580</t>
+  </si>
+  <si>
+    <t>SIMBA</t>
+  </si>
+  <si>
+    <t>0581</t>
+  </si>
+  <si>
+    <t>BANTEMYA</t>
+  </si>
+  <si>
+    <t>0582</t>
+  </si>
+  <si>
+    <t>BIREHA</t>
+  </si>
+  <si>
+    <t>0583</t>
+  </si>
+  <si>
+    <t>HICUBURUNDI</t>
+  </si>
+  <si>
+    <t>0584</t>
+  </si>
+  <si>
+    <t>0585</t>
+  </si>
+  <si>
+    <t>KARIKURUBU</t>
+  </si>
+  <si>
+    <t>0586</t>
+  </si>
+  <si>
+    <t>KIBUNGU</t>
+  </si>
+  <si>
+    <t>0587</t>
+  </si>
+  <si>
+    <t>MARONKA</t>
+  </si>
+  <si>
+    <t>Hamissi</t>
+  </si>
+  <si>
+    <t>0588</t>
+  </si>
+  <si>
+    <t>MPITABAKANA</t>
+  </si>
+  <si>
+    <t>Casimir</t>
+  </si>
+  <si>
+    <t>0589</t>
+  </si>
+  <si>
+    <t>NDIKUBWAYO</t>
+  </si>
+  <si>
+    <t>0590</t>
+  </si>
+  <si>
+    <t>NIMBONA</t>
+  </si>
+  <si>
+    <t>0591</t>
+  </si>
+  <si>
+    <t>NKEJABEGA</t>
+  </si>
+  <si>
+    <t>0592</t>
+  </si>
+  <si>
+    <t>0593</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>0594</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>0595</t>
+  </si>
+  <si>
+    <t>NZOMUKUNDA</t>
+  </si>
+  <si>
+    <t>0596</t>
+  </si>
+  <si>
+    <t>RUTABINGWA</t>
+  </si>
+  <si>
+    <t>Chrysanthe</t>
+  </si>
+  <si>
+    <t>0597</t>
+  </si>
+  <si>
+    <t>0598</t>
+  </si>
+  <si>
+    <t>BATWENGA</t>
+  </si>
+  <si>
+    <t>0599</t>
+  </si>
+  <si>
+    <t>KIROTSA</t>
+  </si>
+  <si>
+    <t>Jean-Chrysostome</t>
+  </si>
+  <si>
+    <t>0600</t>
+  </si>
+  <si>
+    <t>NAKIMBESHE</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>NDAYIZEYE</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>NIYUNGEKO</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>NKEZA</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>NSAVYIMANA</t>
+  </si>
+  <si>
+    <t>0605</t>
+  </si>
+  <si>
+    <t>NZOKIRISHAKA</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>BANGIRINAMA</t>
+  </si>
+  <si>
+    <t>0607</t>
+  </si>
+  <si>
+    <t>Jean de Dieu</t>
+  </si>
+  <si>
+    <t>0608</t>
+  </si>
+  <si>
+    <t>0609</t>
+  </si>
+  <si>
+    <t>MPFUBUSA</t>
+  </si>
+  <si>
+    <t>0610</t>
+  </si>
+  <si>
+    <t>MUHIGIRA</t>
+  </si>
+  <si>
+    <t>0611</t>
+  </si>
+  <si>
+    <t>MYIGEZO</t>
+  </si>
+  <si>
+    <t>0612</t>
+  </si>
+  <si>
+    <t>NDABEMEYE</t>
+  </si>
+  <si>
+    <t>0613</t>
+  </si>
+  <si>
+    <t>NDORICIMPA</t>
+  </si>
+  <si>
+    <t>0614</t>
+  </si>
+  <si>
+    <t>0615</t>
+  </si>
+  <si>
+    <t>NIVYOBIZI</t>
+  </si>
+  <si>
+    <t>0616</t>
+  </si>
+  <si>
+    <t>NIYONKURU</t>
+  </si>
+  <si>
+    <t>0617</t>
+  </si>
+  <si>
+    <t>NKUNDA</t>
+  </si>
+  <si>
+    <t>0618</t>
+  </si>
+  <si>
+    <t>NTIVUMBURA</t>
+  </si>
+  <si>
+    <t>0619</t>
+  </si>
+  <si>
+    <t>0620</t>
+  </si>
+  <si>
+    <t>MBESHERUBUSA</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>0621</t>
+  </si>
+  <si>
+    <t>MUHAGAZE</t>
+  </si>
+  <si>
+    <t>Liboire</t>
+  </si>
+  <si>
+    <t>0622</t>
+  </si>
+  <si>
+    <t>0623</t>
+  </si>
+  <si>
+    <t>0624</t>
+  </si>
+  <si>
+    <t>0625</t>
+  </si>
+  <si>
+    <t>NKUNGUZI</t>
+  </si>
+  <si>
+    <t>0626</t>
+  </si>
+  <si>
+    <t>NTABURAZA</t>
+  </si>
+  <si>
+    <t>0627</t>
+  </si>
+  <si>
+    <t>NTAHOBARI</t>
+  </si>
+  <si>
+    <t>0628</t>
+  </si>
+  <si>
+    <t>NTAWUYANKIRA</t>
+  </si>
+  <si>
+    <t>0629</t>
+  </si>
+  <si>
+    <t>NTUNGICIMPAYE</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
+  <si>
+    <t>NZOHABONAYO</t>
+  </si>
+  <si>
+    <t>0631</t>
+  </si>
+  <si>
+    <t>RUGEMA</t>
+  </si>
+  <si>
+    <t>0632</t>
+  </si>
+  <si>
+    <t>SINDIHEBURA</t>
+  </si>
+  <si>
+    <t>Pontien</t>
+  </si>
+  <si>
+    <t>0633</t>
+  </si>
+  <si>
+    <t>MIDENDE</t>
+  </si>
+  <si>
+    <t>0634</t>
+  </si>
+  <si>
+    <t>0635</t>
+  </si>
+  <si>
+    <t>RASHIDI</t>
+  </si>
+  <si>
+    <t>Juma</t>
   </si>
 </sst>
 </file>
@@ -3346,10 +4351,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -3368,8 +4373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3377,9 +4390,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3391,7 +4404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3413,17 +4426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3452,19 +4456,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3476,16 +4480,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3498,15 +4501,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3521,7 +4526,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3539,19 +4688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,145 +4706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3715,32 +4720,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3804,11 +4788,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3817,7 +4822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3835,130 +4840,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4297,10 +5302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E471"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="E471" sqref="E471"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="E634" sqref="E634:E636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -12318,6 +13323,2811 @@
         <v>618</v>
       </c>
     </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C472" t="s">
+        <v>439</v>
+      </c>
+      <c r="D472" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E472" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C473" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D473" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E473" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C474" t="s">
+        <v>35</v>
+      </c>
+      <c r="D474" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E474" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C475" t="s">
+        <v>70</v>
+      </c>
+      <c r="D475" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E475" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C476" t="s">
+        <v>570</v>
+      </c>
+      <c r="D476" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E476" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B477" t="s">
+        <v>158</v>
+      </c>
+      <c r="C477" t="s">
+        <v>259</v>
+      </c>
+      <c r="D477" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E477" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D478" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E478" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C479" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D479" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E479" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B480" t="s">
+        <v>187</v>
+      </c>
+      <c r="C480" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D480" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E480" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C481" t="s">
+        <v>139</v>
+      </c>
+      <c r="D481" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E481" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C482" t="s">
+        <v>814</v>
+      </c>
+      <c r="D482" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E482" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D483" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E483" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C484" t="s">
+        <v>93</v>
+      </c>
+      <c r="D484" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E484" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C485" t="s">
+        <v>248</v>
+      </c>
+      <c r="D485" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E485" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C486" t="s">
+        <v>439</v>
+      </c>
+      <c r="D486" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E486" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C487" t="s">
+        <v>96</v>
+      </c>
+      <c r="D487" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E487" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C488" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D488" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E488" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C489" t="s">
+        <v>32</v>
+      </c>
+      <c r="D489" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E489" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C490" t="s">
+        <v>120</v>
+      </c>
+      <c r="D490" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E490" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C491" t="s">
+        <v>231</v>
+      </c>
+      <c r="D491" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E491" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C492" t="s">
+        <v>70</v>
+      </c>
+      <c r="D492" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E492" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C493" t="s">
+        <v>885</v>
+      </c>
+      <c r="D493" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E493" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C494" t="s">
+        <v>897</v>
+      </c>
+      <c r="D494" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E494" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C495" t="s">
+        <v>120</v>
+      </c>
+      <c r="D495" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E495" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C496" t="s">
+        <v>995</v>
+      </c>
+      <c r="D496" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E496" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B497" t="s">
+        <v>187</v>
+      </c>
+      <c r="C497" t="s">
+        <v>814</v>
+      </c>
+      <c r="D497" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E497" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C498" t="s">
+        <v>346</v>
+      </c>
+      <c r="D498" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E498" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C499" t="s">
+        <v>231</v>
+      </c>
+      <c r="D499" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E499" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C500" t="s">
+        <v>786</v>
+      </c>
+      <c r="D500" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E500" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C501" t="s">
+        <v>154</v>
+      </c>
+      <c r="D501" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E501" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C502" t="s">
+        <v>32</v>
+      </c>
+      <c r="D502" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E502" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C503" t="s">
+        <v>46</v>
+      </c>
+      <c r="D503" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E503" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C504" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D504" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E504" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B505" t="s">
+        <v>441</v>
+      </c>
+      <c r="C505" t="s">
+        <v>139</v>
+      </c>
+      <c r="D505" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E505" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C506" t="s">
+        <v>142</v>
+      </c>
+      <c r="D506" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E506" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D507" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E507" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C508" t="s">
+        <v>334</v>
+      </c>
+      <c r="D508" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E508" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C509" t="s">
+        <v>70</v>
+      </c>
+      <c r="D509" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E509" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C510" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D510" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E510" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C511" t="s">
+        <v>32</v>
+      </c>
+      <c r="D511" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E511" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C512" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D512" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E512" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C513" t="s">
+        <v>822</v>
+      </c>
+      <c r="D513" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E513" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C514" t="s">
+        <v>226</v>
+      </c>
+      <c r="D514" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E514" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C515" t="s">
+        <v>573</v>
+      </c>
+      <c r="D515" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E515" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C516" t="s">
+        <v>248</v>
+      </c>
+      <c r="D516" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E516" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C517" t="s">
+        <v>64</v>
+      </c>
+      <c r="D517" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E517" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C518" t="s">
+        <v>277</v>
+      </c>
+      <c r="D518" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E518" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C519" t="s">
+        <v>897</v>
+      </c>
+      <c r="D519" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E519" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C520" t="s">
+        <v>403</v>
+      </c>
+      <c r="D520" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E520" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C521" t="s">
+        <v>298</v>
+      </c>
+      <c r="D521" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E521" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C522" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D522" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E522" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C523" t="s">
+        <v>41</v>
+      </c>
+      <c r="D523" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E523" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C524" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D524" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E524" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C525" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D525" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E525" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C526" t="s">
+        <v>55</v>
+      </c>
+      <c r="D526" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E526" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C527" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D527" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E527" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C528" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D528" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E528" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C529" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D529" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E529" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C530" t="s">
+        <v>7</v>
+      </c>
+      <c r="D530" s="1">
+        <v>25750</v>
+      </c>
+      <c r="E530" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C531" t="s">
+        <v>417</v>
+      </c>
+      <c r="D531" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C532" t="s">
+        <v>804</v>
+      </c>
+      <c r="D532" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C533" t="s">
+        <v>23</v>
+      </c>
+      <c r="D533" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E533" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C534" t="s">
+        <v>893</v>
+      </c>
+      <c r="D534" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C535" t="s">
+        <v>35</v>
+      </c>
+      <c r="D535" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C536" t="s">
+        <v>208</v>
+      </c>
+      <c r="D536" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E536" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C537" t="s">
+        <v>749</v>
+      </c>
+      <c r="D537" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E537" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C538" t="s">
+        <v>76</v>
+      </c>
+      <c r="D538" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C539" t="s">
+        <v>96</v>
+      </c>
+      <c r="D539" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E539" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C540" t="s">
+        <v>223</v>
+      </c>
+      <c r="D540" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E540" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C541" t="s">
+        <v>274</v>
+      </c>
+      <c r="D541" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E541" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B542" t="s">
+        <v>95</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D542" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E542" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C543" t="s">
+        <v>920</v>
+      </c>
+      <c r="D543" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E543" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C544" t="s">
+        <v>357</v>
+      </c>
+      <c r="D544" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E544" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C545" t="s">
+        <v>70</v>
+      </c>
+      <c r="D545" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E545" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C546" t="s">
+        <v>890</v>
+      </c>
+      <c r="D546" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E546" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B547" t="s">
+        <v>790</v>
+      </c>
+      <c r="C547" t="s">
+        <v>102</v>
+      </c>
+      <c r="D547" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E547" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C548" t="s">
+        <v>312</v>
+      </c>
+      <c r="D548" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E548" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C549" t="s">
+        <v>164</v>
+      </c>
+      <c r="D549" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E549" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C550" t="s">
+        <v>935</v>
+      </c>
+      <c r="D550" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E550" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C551" t="s">
+        <v>495</v>
+      </c>
+      <c r="D551" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C552" t="s">
+        <v>46</v>
+      </c>
+      <c r="D552" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B553" t="s">
+        <v>158</v>
+      </c>
+      <c r="C553" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D553" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C554" t="s">
+        <v>231</v>
+      </c>
+      <c r="D554" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C555" t="s">
+        <v>139</v>
+      </c>
+      <c r="D555" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C556" t="s">
+        <v>73</v>
+      </c>
+      <c r="D556" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C557" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D557" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B558" t="s">
+        <v>324</v>
+      </c>
+      <c r="C558" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D558" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E558" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B559" t="s">
+        <v>926</v>
+      </c>
+      <c r="C559" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D559" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E559" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C560" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D560" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E560" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B561" t="s">
+        <v>187</v>
+      </c>
+      <c r="C561" t="s">
+        <v>35</v>
+      </c>
+      <c r="D561" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E561" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D562" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E562" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C563" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D563" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E563" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C564" t="s">
+        <v>199</v>
+      </c>
+      <c r="D564" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E564" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C565" t="s">
+        <v>378</v>
+      </c>
+      <c r="D565" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E565" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C566" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D566" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E566" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C567" t="s">
+        <v>64</v>
+      </c>
+      <c r="D567" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E567" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C568" t="s">
+        <v>76</v>
+      </c>
+      <c r="D568" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E568" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C569" t="s">
+        <v>35</v>
+      </c>
+      <c r="D569" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E569" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C570" t="s">
+        <v>64</v>
+      </c>
+      <c r="D570" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E570" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C571" t="s">
+        <v>312</v>
+      </c>
+      <c r="D571" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E571" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B572" t="s">
+        <v>321</v>
+      </c>
+      <c r="C572" t="s">
+        <v>226</v>
+      </c>
+      <c r="D572" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E572" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C573" t="s">
+        <v>231</v>
+      </c>
+      <c r="D573" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E573" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C574" t="s">
+        <v>41</v>
+      </c>
+      <c r="D574" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E574" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C575" t="s">
+        <v>262</v>
+      </c>
+      <c r="D575" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E575" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B576" t="s">
+        <v>371</v>
+      </c>
+      <c r="C576" t="s">
+        <v>615</v>
+      </c>
+      <c r="D576" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E576" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C577" t="s">
+        <v>751</v>
+      </c>
+      <c r="D577" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E577" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B578" t="s">
+        <v>585</v>
+      </c>
+      <c r="C578" t="s">
+        <v>696</v>
+      </c>
+      <c r="D578" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E578" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B579" t="s">
+        <v>977</v>
+      </c>
+      <c r="C579" t="s">
+        <v>93</v>
+      </c>
+      <c r="D579" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E579" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C580" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D580" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E580" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C581" t="s">
+        <v>226</v>
+      </c>
+      <c r="D581" s="1">
+        <v>26115</v>
+      </c>
+      <c r="E581" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C582" t="s">
+        <v>120</v>
+      </c>
+      <c r="D582" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E582" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C583" t="s">
+        <v>439</v>
+      </c>
+      <c r="D583" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E583" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C584" t="s">
+        <v>591</v>
+      </c>
+      <c r="D584" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E584" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B585" t="s">
+        <v>331</v>
+      </c>
+      <c r="C585" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D585" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E585" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C586" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D586" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E586" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C587" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D587" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E587" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C588" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D588" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E588" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C589" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D589" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E589" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C590" t="s">
+        <v>751</v>
+      </c>
+      <c r="D590" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E590" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C591" t="s">
+        <v>88</v>
+      </c>
+      <c r="D591" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E591" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C592" t="s">
+        <v>120</v>
+      </c>
+      <c r="D592" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E592" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B593" t="s">
+        <v>409</v>
+      </c>
+      <c r="C593" t="s">
+        <v>96</v>
+      </c>
+      <c r="D593" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E593" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B594" t="s">
+        <v>163</v>
+      </c>
+      <c r="C594" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D594" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E594" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B595" t="s">
+        <v>305</v>
+      </c>
+      <c r="C595" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D595" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E595" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C596" t="s">
+        <v>322</v>
+      </c>
+      <c r="D596" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E596" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D597" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E597" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B598" t="s">
+        <v>324</v>
+      </c>
+      <c r="C598" t="s">
+        <v>23</v>
+      </c>
+      <c r="D598" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E598" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C599" t="s">
+        <v>139</v>
+      </c>
+      <c r="D599" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E599" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D600" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E600" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C601" t="s">
+        <v>535</v>
+      </c>
+      <c r="D601" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E601" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C602" t="s">
+        <v>96</v>
+      </c>
+      <c r="D602" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E602" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C603" t="s">
+        <v>85</v>
+      </c>
+      <c r="D603" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E603" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C604" t="s">
+        <v>334</v>
+      </c>
+      <c r="D604" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E604" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C605" t="s">
+        <v>885</v>
+      </c>
+      <c r="D605" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E605" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C606" t="s">
+        <v>751</v>
+      </c>
+      <c r="D606" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E606" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C607" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D607" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E607" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B608" t="s">
+        <v>839</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D608" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B609" t="s">
+        <v>748</v>
+      </c>
+      <c r="C609" t="s">
+        <v>334</v>
+      </c>
+      <c r="D609" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D610" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C611" t="s">
+        <v>164</v>
+      </c>
+      <c r="D611" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C612" t="s">
+        <v>717</v>
+      </c>
+      <c r="D612" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C613" t="s">
+        <v>417</v>
+      </c>
+      <c r="D613" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D614" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E614" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B615" t="s">
+        <v>585</v>
+      </c>
+      <c r="C615" t="s">
+        <v>76</v>
+      </c>
+      <c r="D615" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E615" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C616" t="s">
+        <v>417</v>
+      </c>
+      <c r="D616" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E616" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C617" t="s">
+        <v>885</v>
+      </c>
+      <c r="D617" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E617" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C618" t="s">
+        <v>85</v>
+      </c>
+      <c r="D618" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D619" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E619" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B620" t="s">
+        <v>704</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D620" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E620" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D621" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E621" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D622" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E622" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B623" t="s">
+        <v>581</v>
+      </c>
+      <c r="C623" t="s">
+        <v>231</v>
+      </c>
+      <c r="D623" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E623" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B624" t="s">
+        <v>158</v>
+      </c>
+      <c r="C624" t="s">
+        <v>85</v>
+      </c>
+      <c r="D624" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E624" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D625" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E625" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C626" t="s">
+        <v>570</v>
+      </c>
+      <c r="D626" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E626" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D627" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E627" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C628" t="s">
+        <v>262</v>
+      </c>
+      <c r="D628" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E628" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C629" t="s">
+        <v>88</v>
+      </c>
+      <c r="D629" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E629" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C630" t="s">
+        <v>439</v>
+      </c>
+      <c r="D630" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E630" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C631" t="s">
+        <v>226</v>
+      </c>
+      <c r="D631" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E631" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C632" t="s">
+        <v>786</v>
+      </c>
+      <c r="D632" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E632" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C633" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D633" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E633" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C634" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D634" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E634" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C635" t="s">
+        <v>519</v>
+      </c>
+      <c r="D635" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E635" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C636" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D636" s="1">
+        <v>26481</v>
+      </c>
+      <c r="E636" t="s">
+        <v>1321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
